--- a/MicroGrids/Results/Battery_Data.xlsx
+++ b/MicroGrids/Results/Battery_Data.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Battery_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Yearly BRC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Unitary Investment Cost [USD/Wh]</t>
   </si>
@@ -50,6 +51,27 @@
   </si>
   <si>
     <t>Yearly O&amp;M Cost at upgrade 3</t>
+  </si>
+  <si>
+    <t>Total actualized Battery Reposition Cost</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Battery Reposition Cost at y = 1</t>
+  </si>
+  <si>
+    <t>Battery Reposition Cost at y = 2</t>
+  </si>
+  <si>
+    <t>Battery Reposition Cost at y = 3</t>
+  </si>
+  <si>
+    <t>Battery Reposition Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Battery Reposition Cost at y = 5</t>
   </si>
 </sst>
 </file>
@@ -407,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34021.40073141063</v>
+        <v>70546.77655665303</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34021.40073141063</v>
+        <v>70546.77655665303</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34021.40073141063</v>
+        <v>70546.77655665303</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23814.98051198744</v>
+        <v>49382.74358965712</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -495,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>357.2247076798116</v>
+        <v>740.7411538448567</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>357.2247076798116</v>
+        <v>740.7411538448567</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -511,7 +533,73 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>357.2247076798116</v>
+        <v>740.7411538448567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2343.477666916204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>640.1529321864264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>637.7983950226107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>661.2096533761771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>651.378819448518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>667.688853398827</v>
       </c>
     </row>
   </sheetData>
